--- a/CyRoc Step 2 Parts List.xlsx
+++ b/CyRoc Step 2 Parts List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rubicore\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rubicore\Documents\GitHub\CycloneRocketry\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>Part Name</t>
   </si>
@@ -53,15 +53,9 @@
     <t>0805 LED Red</t>
   </si>
   <si>
-    <t>2.54mm Female Header (2x19)</t>
-  </si>
-  <si>
     <t>2.54mm Male Header</t>
   </si>
   <si>
-    <t>2.54mm Angle Header (2x8)</t>
-  </si>
-  <si>
     <t>Female XT60</t>
   </si>
   <si>
@@ -125,13 +119,37 @@
     <t>Adafruit GPS Antenna Adapter</t>
   </si>
   <si>
-    <t>Comes in pack with the male headers above</t>
-  </si>
-  <si>
-    <t>B01MQ48T2V</t>
-  </si>
-  <si>
-    <t>NA</t>
+    <t>B06XR8CV8P</t>
+  </si>
+  <si>
+    <t>2.54mm Female Header</t>
+  </si>
+  <si>
+    <t>B00899WQ6U</t>
+  </si>
+  <si>
+    <t>2.54mm Female Angle Header (2x8)</t>
+  </si>
+  <si>
+    <t>S5561-ND</t>
+  </si>
+  <si>
+    <t>B01ETROGP4</t>
+  </si>
+  <si>
+    <t>RHM220KCT-ND</t>
+  </si>
+  <si>
+    <t>RHM2.2KKCT-ND</t>
+  </si>
+  <si>
+    <t>3S 2200 mAh Lithium Battery</t>
+  </si>
+  <si>
+    <t>T2200.3S.25</t>
+  </si>
+  <si>
+    <t>Optional, but I recommend buying at least 1.  This is so we can test it while it's not hooked up to the computer.</t>
   </si>
 </sst>
 </file>
@@ -176,9 +194,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -494,20 +515,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F79FD18-08DC-4A20-8C72-C403F9A3F87F}">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="101.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -535,13 +556,17 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>0.105</v>
       </c>
       <c r="D2">
         <v>10</v>
+      </c>
+      <c r="E2">
+        <f>C2*D2</f>
+        <v>1.05</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -549,7 +574,7 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>0.31</v>
@@ -558,7 +583,7 @@
         <v>3</v>
       </c>
       <c r="E3">
-        <f>D3*C3</f>
+        <f t="shared" ref="E3:E22" si="0">C3*D3</f>
         <v>0.92999999999999994</v>
       </c>
     </row>
@@ -567,7 +592,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4">
         <v>0.31</v>
@@ -576,16 +601,16 @@
         <v>6</v>
       </c>
       <c r="E4">
-        <f>D4*C4</f>
+        <f t="shared" si="0"/>
         <v>1.8599999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
+      <c r="A5" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>6.99</v>
@@ -593,53 +618,107 @@
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>6.99</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>9</v>
+      <c r="A6" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>4.63</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="C7">
+        <v>1.38</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B9" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.86999999999999988</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.86999999999999988</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
         <v>17</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
       </c>
       <c r="C11">
         <v>2.94</v>
@@ -647,16 +726,20 @@
       <c r="D11">
         <v>2</v>
       </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>5.88</v>
+      </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>1.36</v>
@@ -664,15 +747,19 @@
       <c r="D12">
         <v>2</v>
       </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>2.72</v>
+      </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
         <v>254</v>
       </c>
       <c r="C13">
@@ -681,12 +768,16 @@
       <c r="D13">
         <v>1</v>
       </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2">
         <v>3013</v>
       </c>
       <c r="C14">
@@ -695,12 +786,16 @@
       <c r="D14">
         <v>1</v>
       </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>13.95</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2">
         <v>1782</v>
       </c>
       <c r="C15">
@@ -709,12 +804,16 @@
       <c r="D15">
         <v>1</v>
       </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>4.95</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2">
         <v>1413</v>
       </c>
       <c r="C16">
@@ -723,12 +822,16 @@
       <c r="D16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>24.95</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2">
         <v>2472</v>
       </c>
       <c r="C17">
@@ -737,12 +840,16 @@
       <c r="D17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>34.950000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2">
         <v>992</v>
       </c>
       <c r="C18">
@@ -751,12 +858,16 @@
       <c r="D18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>7.95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B19">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2">
         <v>746</v>
       </c>
       <c r="C19">
@@ -765,12 +876,16 @@
       <c r="D19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>39.950000000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>29</v>
+      </c>
+      <c r="B20" s="2">
         <v>960</v>
       </c>
       <c r="C20">
@@ -779,12 +894,16 @@
       <c r="D20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>12.95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>30</v>
+      </c>
+      <c r="B21" s="2">
         <v>851</v>
       </c>
       <c r="C21">
@@ -792,6 +911,31 @@
       </c>
       <c r="D21">
         <v>1</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>3.95</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>10.99</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>21.98</v>
+      </c>
+      <c r="F22" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -810,8 +954,15 @@
     <hyperlink ref="A13" r:id="rId12" xr:uid="{A503BD7A-F505-4CC4-8BDA-CA8A5830FF99}"/>
     <hyperlink ref="A20" r:id="rId13" xr:uid="{E7BE3344-BD76-4657-8404-72E2410C2F69}"/>
     <hyperlink ref="A21" r:id="rId14" xr:uid="{FA8D86BA-BA70-442D-8D84-DADAEDA32ECD}"/>
+    <hyperlink ref="A5" r:id="rId15" xr:uid="{3305089C-B35D-49DB-9766-B56BC7879B8A}"/>
+    <hyperlink ref="A6" r:id="rId16" xr:uid="{F9805B5D-D82A-4A4A-8802-8BC4A4D14E19}"/>
+    <hyperlink ref="A7" r:id="rId17" xr:uid="{C2AE0D26-6F0D-459F-947F-28CB4E1EC451}"/>
+    <hyperlink ref="A8" r:id="rId18" xr:uid="{1750A979-3632-4BE3-80E1-14FC0E4049A4}"/>
+    <hyperlink ref="A9" r:id="rId19" xr:uid="{02CFD50B-6611-40CB-8488-E5284590B969}"/>
+    <hyperlink ref="A10" r:id="rId20" xr:uid="{BF093CBF-F5E5-46D8-8847-87C0937DF498}"/>
+    <hyperlink ref="A22" r:id="rId21" xr:uid="{024F6448-D162-4DF0-9FA6-83895687391F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
--- a/CyRoc Step 2 Parts List.xlsx
+++ b/CyRoc Step 2 Parts List.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
   <si>
     <t>Part Name</t>
   </si>
@@ -150,13 +150,82 @@
   </si>
   <si>
     <t>Optional, but I recommend buying at least 1.  This is so we can test it while it's not hooked up to the computer.</t>
+  </si>
+  <si>
+    <t>Aluminum, 7/32", hex, 2-56, standoff</t>
+  </si>
+  <si>
+    <t>McMaster</t>
+  </si>
+  <si>
+    <t>93505A513</t>
+  </si>
+  <si>
+    <t>Aluminum because steel is expensive and magnetic.  I know you're supposed to match materials.</t>
+  </si>
+  <si>
+    <t>Stainless steel, hex, 2-56, 3/16" screw (100 pk.)</t>
+  </si>
+  <si>
+    <t>92949A076</t>
+  </si>
+  <si>
+    <t>Steel because alternatives suck</t>
+  </si>
+  <si>
+    <t>Stainless steel, hex, 2-56, nut (100 pk.)</t>
+  </si>
+  <si>
+    <t>91841A003</t>
+  </si>
+  <si>
+    <t>See above</t>
+  </si>
+  <si>
+    <t>Adafruit</t>
+  </si>
+  <si>
+    <t>KEEP AWAY FROM OTHER SENSORS!! ESP THE MAGNETOMETER.  THE MAGNET WILL MESS IT UP!</t>
+  </si>
+  <si>
+    <t>RFD900+</t>
+  </si>
+  <si>
+    <t>RFDesign Ltd.</t>
+  </si>
+  <si>
+    <t>MODEM-RFD900+</t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>Hobby King</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>$AUD 99.50 = $USD 77.71.  Ships from Australia. These radios allow communication between the rocket and the base station.</t>
+  </si>
+  <si>
+    <t>**Does not include shipping</t>
+  </si>
+  <si>
+    <t>***RFD900s, GPS, GPS Antenna, GPS antenna adapters, can be reused in Step 3.  We already bought a lot of the sensors and them can be pulled from the breadboard.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +237,21 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -190,18 +274,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -515,436 +603,616 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F79FD18-08DC-4A20-8C72-C403F9A3F87F}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="101.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="150.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="3">
+        <v>6.99</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <f>D2*E2</f>
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="3">
+        <v>4.63</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <f>D3*E3</f>
+        <v>4.63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="3">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <f>D4*E4</f>
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1.38</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3">
+        <f>D5*E5</f>
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C2">
+      <c r="D6" s="3">
         <v>0.105</v>
       </c>
-      <c r="D2">
+      <c r="E6">
         <v>10</v>
       </c>
-      <c r="E2">
-        <f>C2*D2</f>
+      <c r="F6" s="3">
+        <f>D6*E6</f>
         <v>1.05</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" t="s">
         <v>27</v>
       </c>
-      <c r="C3">
+      <c r="D7" s="3">
         <v>0.31</v>
       </c>
-      <c r="D3">
+      <c r="E7">
         <v>3</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E22" si="0">C3*D3</f>
+      <c r="F7" s="3">
+        <f>D7*E7</f>
         <v>0.92999999999999994</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
         <v>28</v>
       </c>
-      <c r="C4">
+      <c r="D8" s="3">
         <v>0.31</v>
       </c>
-      <c r="D4">
+      <c r="E8">
         <v>6</v>
       </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
+      <c r="F8" s="3">
+        <f>D8*E8</f>
         <v>1.8599999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5">
-        <v>6.99</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>6.99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6">
-        <v>4.63</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>4.63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7">
-        <v>1.38</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>2.76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8">
-        <v>8.4499999999999993</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>8.4499999999999993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="C9">
+      <c r="D9" s="3">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>10</v>
       </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
+      <c r="F9" s="3">
+        <f>D9*E9</f>
         <v>0.86999999999999988</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
         <v>38</v>
       </c>
-      <c r="C10">
+      <c r="D10" s="3">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>10</v>
       </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
+      <c r="F10" s="3">
+        <f>D10*E10</f>
         <v>0.86999999999999988</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="C11">
+      <c r="D11" s="3">
         <v>2.94</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>2</v>
       </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
+      <c r="F11" s="3">
+        <f>D11*E11</f>
         <v>5.88</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" t="s">
         <v>19</v>
       </c>
-      <c r="C12">
+      <c r="D12" s="3">
         <v>1.36</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>2</v>
       </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
+      <c r="F12" s="3">
+        <f>D12*E12</f>
         <v>2.72</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="2">
         <v>254</v>
       </c>
-      <c r="C13">
+      <c r="D13" s="3">
         <v>7.5</v>
       </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
       <c r="E13">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <f>D13*E13</f>
         <v>7.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="2">
         <v>3013</v>
       </c>
-      <c r="C14">
+      <c r="D14" s="3">
         <v>13.95</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
       <c r="E14">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <f>D14*E14</f>
         <v>13.95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="2">
         <v>1782</v>
       </c>
-      <c r="C15">
+      <c r="D15" s="3">
         <v>4.95</v>
       </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
       <c r="E15">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <f>D15*E15</f>
         <v>4.95</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="2">
         <v>1413</v>
       </c>
-      <c r="C16">
+      <c r="D16" s="3">
         <v>24.95</v>
       </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
       <c r="E16">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <f>D16*E16</f>
         <v>24.95</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="2">
         <v>2472</v>
       </c>
-      <c r="C17">
+      <c r="D17" s="3">
         <v>34.950000000000003</v>
       </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
       <c r="E17">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <f>D17*E17</f>
         <v>34.950000000000003</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="2">
         <v>992</v>
       </c>
-      <c r="C18">
+      <c r="D18" s="3">
         <v>7.95</v>
       </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
       <c r="E18">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <f>D18*E18</f>
         <v>7.95</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="2">
         <v>746</v>
       </c>
-      <c r="C19">
+      <c r="D19" s="3">
         <v>39.950000000000003</v>
       </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
       <c r="E19">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <f>D19*E19</f>
         <v>39.950000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="2">
         <v>960</v>
       </c>
-      <c r="C20">
+      <c r="D20" s="3">
         <v>12.95</v>
       </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
       <c r="E20">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F20" s="3">
+        <f>D20*E20</f>
         <v>12.95</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" t="s">
+        <v>52</v>
+      </c>
+      <c r="C21" s="2">
         <v>851</v>
       </c>
-      <c r="C21">
+      <c r="D21" s="3">
         <v>3.95</v>
       </c>
-      <c r="D21">
-        <v>1</v>
-      </c>
       <c r="E21">
-        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F21" s="3">
+        <f>D21*E21</f>
         <v>3.95</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B22" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
         <v>40</v>
       </c>
-      <c r="C22">
+      <c r="D22" s="3">
         <v>10.99</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>2</v>
       </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
+      <c r="F22" s="3">
+        <f>D22*E22</f>
         <v>21.98</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="3">
+        <v>0.78</v>
+      </c>
+      <c r="E23">
+        <v>30</v>
+      </c>
+      <c r="F23" s="3">
+        <f>D23*E23</f>
+        <v>23.400000000000002</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="3">
+        <v>5.42</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" s="3">
+        <f>D24*E24</f>
+        <v>5.42</v>
+      </c>
+      <c r="G24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="3">
+        <v>3.03</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" s="3">
+        <f>D25*E25</f>
+        <v>3.03</v>
+      </c>
+      <c r="G25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="3">
+        <v>77.709999999999994</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" s="3">
+        <f>D26*E26</f>
+        <v>155.41999999999999</v>
+      </c>
+      <c r="G26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F27" s="4">
+        <f>SUM(F2:F26)</f>
+        <v>397.3599999999999</v>
+      </c>
+      <c r="G27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A11" r:id="rId1" xr:uid="{C5F6E235-2151-43CD-B6E9-27374F225927}"/>
     <hyperlink ref="A12" r:id="rId2" xr:uid="{879F70B1-7BB4-4089-9FA7-98CBA897865F}"/>
-    <hyperlink ref="A2" r:id="rId3" xr:uid="{C478DE1C-49B7-42E1-B9F1-210592BD14BD}"/>
-    <hyperlink ref="A3" r:id="rId4" xr:uid="{BAEF8567-05A9-4D53-ADAF-77CAD093E3C6}"/>
-    <hyperlink ref="A4" r:id="rId5" xr:uid="{7E91AC15-B982-441A-8DB6-11391B6C8232}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{C478DE1C-49B7-42E1-B9F1-210592BD14BD}"/>
+    <hyperlink ref="A7" r:id="rId4" xr:uid="{BAEF8567-05A9-4D53-ADAF-77CAD093E3C6}"/>
+    <hyperlink ref="A8" r:id="rId5" xr:uid="{7E91AC15-B982-441A-8DB6-11391B6C8232}"/>
     <hyperlink ref="A19" r:id="rId6" xr:uid="{91BEF282-C3E1-41CF-9779-92B56AF8BDC5}"/>
     <hyperlink ref="A18" r:id="rId7" xr:uid="{C7B6F619-CB32-428C-AAEB-17DB1054FFCA}"/>
     <hyperlink ref="A17" r:id="rId8" xr:uid="{C47BD262-B4FF-4482-85D6-B8A84F6987BA}"/>
@@ -954,15 +1222,16 @@
     <hyperlink ref="A13" r:id="rId12" xr:uid="{A503BD7A-F505-4CC4-8BDA-CA8A5830FF99}"/>
     <hyperlink ref="A20" r:id="rId13" xr:uid="{E7BE3344-BD76-4657-8404-72E2410C2F69}"/>
     <hyperlink ref="A21" r:id="rId14" xr:uid="{FA8D86BA-BA70-442D-8D84-DADAEDA32ECD}"/>
-    <hyperlink ref="A5" r:id="rId15" xr:uid="{3305089C-B35D-49DB-9766-B56BC7879B8A}"/>
-    <hyperlink ref="A6" r:id="rId16" xr:uid="{F9805B5D-D82A-4A4A-8802-8BC4A4D14E19}"/>
-    <hyperlink ref="A7" r:id="rId17" xr:uid="{C2AE0D26-6F0D-459F-947F-28CB4E1EC451}"/>
-    <hyperlink ref="A8" r:id="rId18" xr:uid="{1750A979-3632-4BE3-80E1-14FC0E4049A4}"/>
+    <hyperlink ref="A2" r:id="rId15" xr:uid="{3305089C-B35D-49DB-9766-B56BC7879B8A}"/>
+    <hyperlink ref="A3" r:id="rId16" xr:uid="{F9805B5D-D82A-4A4A-8802-8BC4A4D14E19}"/>
+    <hyperlink ref="A5" r:id="rId17" xr:uid="{C2AE0D26-6F0D-459F-947F-28CB4E1EC451}"/>
+    <hyperlink ref="A4" r:id="rId18" xr:uid="{1750A979-3632-4BE3-80E1-14FC0E4049A4}"/>
     <hyperlink ref="A9" r:id="rId19" xr:uid="{02CFD50B-6611-40CB-8488-E5284590B969}"/>
     <hyperlink ref="A10" r:id="rId20" xr:uid="{BF093CBF-F5E5-46D8-8847-87C0937DF498}"/>
     <hyperlink ref="A22" r:id="rId21" xr:uid="{024F6448-D162-4DF0-9FA6-83895687391F}"/>
+    <hyperlink ref="A26" r:id="rId22" xr:uid="{861310C7-DAEB-4461-A299-1FD573A30A8E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId22"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>